--- a/HT36C/Tables/Table 7.xlsx
+++ b/HT36C/Tables/Table 7.xlsx
@@ -113,7 +113,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -129,22 +129,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -177,27 +166,22 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -585,70 +569,88 @@
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="B4" s="12">
+        <v>0.04943642</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.01632028</v>
+      </c>
+      <c r="D4" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>52.0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>36.7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>40.3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1597.08273</v>
+      </c>
+      <c r="I4" s="14">
+        <v>2417.73779</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.91534893</v>
+      </c>
+      <c r="K4" s="15">
+        <v>14.7795339</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2216.17808</v>
+      </c>
+      <c r="M4" s="15">
+        <v>31.316388</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>0.04943642</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>0.01865175</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>12.8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>46.8</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>34.2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>38.7</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="14">
         <v>1669.23421</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="14">
         <v>1673.81847</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <v>0.63114033</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="15">
         <v>18.4582208</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="14">
         <v>1228.49873</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="17">
         <v>23.6049034</v>
       </c>
       <c r="N5" s="3"/>
@@ -6240,12 +6242,12 @@
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -6268,12 +6270,12 @@
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -6296,12 +6298,12 @@
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -6324,12 +6326,12 @@
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -6352,12 +6354,12 @@
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
@@ -6380,12 +6382,12 @@
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -6408,12 +6410,12 @@
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -28080,12 +28082,6 @@
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="4"/>
-      <c r="H985" s="4"/>
       <c r="I985" s="4"/>
       <c r="J985" s="4"/>
       <c r="K985" s="4"/>
@@ -28108,12 +28104,6 @@
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
       <c r="I986" s="4"/>
       <c r="J986" s="4"/>
       <c r="K986" s="4"/>
@@ -28136,12 +28126,6 @@
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
-      <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
-      <c r="E987" s="4"/>
-      <c r="F987" s="4"/>
-      <c r="G987" s="4"/>
-      <c r="H987" s="4"/>
       <c r="I987" s="4"/>
       <c r="J987" s="4"/>
       <c r="K987" s="4"/>
@@ -28164,12 +28148,6 @@
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
-      <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
-      <c r="E988" s="4"/>
-      <c r="F988" s="4"/>
-      <c r="G988" s="4"/>
-      <c r="H988" s="4"/>
       <c r="I988" s="4"/>
       <c r="J988" s="4"/>
       <c r="K988" s="4"/>
@@ -28192,12 +28170,6 @@
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
-      <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
-      <c r="E989" s="4"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="4"/>
-      <c r="H989" s="4"/>
       <c r="I989" s="4"/>
       <c r="J989" s="4"/>
       <c r="K989" s="4"/>
@@ -28220,12 +28192,6 @@
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
-      <c r="H990" s="4"/>
       <c r="I990" s="4"/>
       <c r="J990" s="4"/>
       <c r="K990" s="4"/>
@@ -28248,12 +28214,6 @@
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-      <c r="H991" s="4"/>
       <c r="I991" s="4"/>
       <c r="J991" s="4"/>
       <c r="K991" s="4"/>

--- a/HT36C/Tables/Table 7.xlsx
+++ b/HT36C/Tables/Table 7.xlsx
@@ -73,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -113,7 +114,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -129,11 +130,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -148,15 +160,6 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -166,22 +169,22 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -473,28 +476,28 @@
       <c r="E2" s="7">
         <v>43.6</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>26.8</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>30.9</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>971.284343</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>884.766667</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="7">
         <v>0.41503268</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="7">
         <v>13.1839941</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <v>909.155031</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="7">
         <v>15.1596049</v>
       </c>
       <c r="N2" s="3"/>
@@ -527,28 +530,28 @@
       <c r="E3" s="7">
         <v>44.5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>22.8</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>29.1</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>621.878424</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>509.877228</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>0.49838188</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>15.4696885</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>446.519306</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <v>10.5163203</v>
       </c>
       <c r="N3" s="3"/>
@@ -566,43 +569,43 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>0.04943642</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>0.01632028</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>13.3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>52.0</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>36.7</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>40.3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <v>1597.08273</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>2417.73779</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="10">
         <v>0.91534893</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="10">
         <v>14.7795339</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>2216.17808</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="10">
         <v>31.316388</v>
       </c>
       <c r="N4" s="4"/>
@@ -614,43 +617,43 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>0.04943642</v>
       </c>
       <c r="C5" s="12">
         <v>0.01865175</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>12.8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>46.8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>34.2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>38.7</v>
       </c>
       <c r="H5" s="14">
         <v>1669.23421</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1673.81847</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>0.63114033</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>18.4582208</v>
       </c>
       <c r="L5" s="14">
-        <v>1228.49873</v>
+        <v>1225.13412</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="10">
         <v>23.6049034</v>
       </c>
       <c r="N5" s="3"/>
